--- a/BEMFSimulation/ExcelResults/PhaseVoltage6000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage6000.xlsx
@@ -408,13 +408,13 @@
         <v>2.777777777777778e-05</v>
       </c>
       <c r="B2">
-        <v>4.405573016285302</v>
+        <v>6.162692132467007</v>
       </c>
       <c r="C2">
-        <v>394.5666233505619</v>
+        <v>399.996588094116</v>
       </c>
       <c r="D2">
-        <v>-415.5159013260371</v>
+        <v>-425.4867022929072</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B3">
-        <v>25.03941152011335</v>
+        <v>25.15442955462715</v>
       </c>
       <c r="C3">
-        <v>376.4796254062304</v>
+        <v>386.4406009847643</v>
       </c>
       <c r="D3">
-        <v>-410.6119717095208</v>
+        <v>-425.6977689386462</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>8.333333333333334e-05</v>
       </c>
       <c r="B4">
-        <v>74.7941901501562</v>
+        <v>74.42281592443922</v>
       </c>
       <c r="C4">
-        <v>345.7111599409234</v>
+        <v>361.8430920871265</v>
       </c>
       <c r="D4">
-        <v>-393.8871260932959</v>
+        <v>-408.4100537037461</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B5">
-        <v>134.5666978838708</v>
+        <v>135.6324878482681</v>
       </c>
       <c r="C5">
-        <v>299.7208343401056</v>
+        <v>297.607872605537</v>
       </c>
       <c r="D5">
-        <v>-380.6316044448211</v>
+        <v>-384.4210627536651</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001388888888888889</v>
       </c>
       <c r="B6">
-        <v>169.6543375495588</v>
+        <v>177.1849884643564</v>
       </c>
       <c r="C6">
-        <v>249.2557773326455</v>
+        <v>253.9506550464554</v>
       </c>
       <c r="D6">
-        <v>-391.2424658786741</v>
+        <v>-406.4938907100059</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B7">
-        <v>183.5691300929122</v>
+        <v>188.2058861730404</v>
       </c>
       <c r="C7">
-        <v>219.0655520705146</v>
+        <v>226.9277352632229</v>
       </c>
       <c r="D7">
-        <v>-401.1076283848665</v>
+        <v>-414.4318709901715</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0001944444444444444</v>
       </c>
       <c r="B8">
-        <v>199.006216531862</v>
+        <v>199.2171851925867</v>
       </c>
       <c r="C8">
-        <v>208.6810674874526</v>
+        <v>213.7001796193439</v>
       </c>
       <c r="D8">
-        <v>-414.0965740228737</v>
+        <v>-418.5003651343301</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B9">
-        <v>208.8489162565773</v>
+        <v>212.4017118492216</v>
       </c>
       <c r="C9">
-        <v>199.6554663375676</v>
+        <v>201.2841105730031</v>
       </c>
       <c r="D9">
-        <v>-415.5552825851357</v>
+        <v>-419.3179219221806</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.00025</v>
       </c>
       <c r="B10">
-        <v>218.8206796733882</v>
+        <v>226.0062563804138</v>
       </c>
       <c r="C10">
-        <v>183.7968909959229</v>
+        <v>186.696446864211</v>
       </c>
       <c r="D10">
-        <v>-402.4798290446382</v>
+        <v>-411.3866133671806</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B11">
-        <v>248.7362626615771</v>
+        <v>257.2414338939521</v>
       </c>
       <c r="C11">
-        <v>170.1784346440789</v>
+        <v>178.3235558454815</v>
       </c>
       <c r="D11">
-        <v>-392.7593969928034</v>
+        <v>-412.7627814974745</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003055555555555555</v>
       </c>
       <c r="B12">
-        <v>299.532029801199</v>
+        <v>302.3908246798782</v>
       </c>
       <c r="C12">
-        <v>135.0821348236295</v>
+        <v>133.2127773795019</v>
       </c>
       <c r="D12">
-        <v>-381.8403324671828</v>
+        <v>-389.0651871374336</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B13">
-        <v>345.0260979520844</v>
+        <v>354.1009954474486</v>
       </c>
       <c r="C13">
-        <v>75.80820570091373</v>
+        <v>73.73120134144622</v>
       </c>
       <c r="D13">
-        <v>-394.3176938619158</v>
+        <v>-402.8753905424167</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003611111111111111</v>
       </c>
       <c r="B14">
-        <v>376.2881316620118</v>
+        <v>390.8775730005599</v>
       </c>
       <c r="C14">
-        <v>25.71006736577752</v>
+        <v>25.35235003439245</v>
       </c>
       <c r="D14">
-        <v>-409.921676882507</v>
+        <v>-425.2278012957771</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B15">
-        <v>393.8566198537299</v>
+        <v>397.8267415358976</v>
       </c>
       <c r="C15">
-        <v>4.804231429767047</v>
+        <v>6.721358049160686</v>
       </c>
       <c r="D15">
-        <v>-413.8453321097346</v>
+        <v>-422.4073888183083</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B16">
-        <v>414.365427942642</v>
+        <v>419.6296970094934</v>
       </c>
       <c r="C16">
-        <v>-0.01287201439237329</v>
+        <v>0.1164294317615444</v>
       </c>
       <c r="D16">
-        <v>-413.7293312983855</v>
+        <v>-421.0613937949847</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B17">
-        <v>414.4766770752282</v>
+        <v>423.2038924608912</v>
       </c>
       <c r="C17">
-        <v>-4.462901547092835</v>
+        <v>-5.907426652835557</v>
       </c>
       <c r="D17">
-        <v>-394.743578890523</v>
+        <v>-400.0711139617702</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0004722222222222222</v>
       </c>
       <c r="B18">
-        <v>409.6801826836522</v>
+        <v>426.3437900811699</v>
       </c>
       <c r="C18">
-        <v>-24.75803524268549</v>
+        <v>-24.51905428501461</v>
       </c>
       <c r="D18">
-        <v>-376.4205161810748</v>
+        <v>-387.3326518037401</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005</v>
       </c>
       <c r="B19">
-        <v>394.9264926769623</v>
+        <v>410.7402505989672</v>
       </c>
       <c r="C19">
-        <v>-74.46429175339985</v>
+        <v>-74.03759370760794</v>
       </c>
       <c r="D19">
-        <v>-346.3477708865925</v>
+        <v>-361.6790474008774</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005277777777777778</v>
       </c>
       <c r="B20">
-        <v>382.0288418220457</v>
+        <v>387.4673531377724</v>
       </c>
       <c r="C20">
-        <v>-134.6368931454611</v>
+        <v>-134.2977337459128</v>
       </c>
       <c r="D20">
-        <v>-299.9441934366315</v>
+        <v>-297.9746381504542</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0005555555555555557</v>
       </c>
       <c r="B21">
-        <v>392.317241142077</v>
+        <v>408.8843911826791</v>
       </c>
       <c r="C21">
-        <v>-169.9393362888462</v>
+        <v>-176.8827349053984</v>
       </c>
       <c r="D21">
-        <v>-249.2829692639101</v>
+        <v>-255.1180663634528</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0005833333333333335</v>
       </c>
       <c r="B22">
-        <v>401.8985884980206</v>
+        <v>414.258976225069</v>
       </c>
       <c r="C22">
-        <v>-183.5270432167101</v>
+        <v>-188.4631341928106</v>
       </c>
       <c r="D22">
-        <v>-219.4392260791493</v>
+        <v>-227.9492668317576</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006111111111111113</v>
       </c>
       <c r="B23">
-        <v>414.2663273246778</v>
+        <v>418.5125533900207</v>
       </c>
       <c r="C23">
-        <v>-198.9941381849394</v>
+        <v>-200.4045246367967</v>
       </c>
       <c r="D23">
-        <v>-208.9615686038748</v>
+        <v>-213.5986568768178</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006388888888888891</v>
       </c>
       <c r="B24">
-        <v>415.1073933577731</v>
+        <v>421.0890210914802</v>
       </c>
       <c r="C24">
-        <v>-208.8884851410733</v>
+        <v>-213.5994986015402</v>
       </c>
       <c r="D24">
-        <v>-199.5257131045256</v>
+        <v>-200.8625702757238</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.000666666666666667</v>
       </c>
       <c r="B25">
-        <v>402.9999010789705</v>
+        <v>412.9160713416319</v>
       </c>
       <c r="C25">
-        <v>-219.1312520324294</v>
+        <v>-225.9809330419868</v>
       </c>
       <c r="D25">
-        <v>-183.613452135865</v>
+        <v>-186.8276349007825</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0006944444444444448</v>
       </c>
       <c r="B26">
-        <v>393.8123097448019</v>
+        <v>412.3330640347242</v>
       </c>
       <c r="C26">
-        <v>-248.9720790325105</v>
+        <v>-255.9417254976365</v>
       </c>
       <c r="D26">
-        <v>-170.2767983537973</v>
+        <v>-178.8928309111279</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007222222222222226</v>
       </c>
       <c r="B27">
-        <v>383.2292206466835</v>
+        <v>387.1213185704667</v>
       </c>
       <c r="C27">
-        <v>-299.6496884508911</v>
+        <v>-301.41220601898</v>
       </c>
       <c r="D27">
-        <v>-135.2525538296485</v>
+        <v>-134.9059961448501</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0007500000000000004</v>
       </c>
       <c r="B28">
-        <v>396.1732762454901</v>
+        <v>403.073786206182</v>
       </c>
       <c r="C28">
-        <v>-345.7656390415676</v>
+        <v>-355.0654316301266</v>
       </c>
       <c r="D28">
-        <v>-75.69218341326943</v>
+        <v>-74.208198853212</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0007777777777777783</v>
       </c>
       <c r="B29">
-        <v>410.7490622998055</v>
+        <v>427.64516052879</v>
       </c>
       <c r="C29">
-        <v>-376.9064155266066</v>
+        <v>-391.7570070507381</v>
       </c>
       <c r="D29">
-        <v>-25.43443958295499</v>
+        <v>-24.73410904192786</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008055555555555561</v>
       </c>
       <c r="B30">
-        <v>413.6295438927055</v>
+        <v>424.6637108419801</v>
       </c>
       <c r="C30">
-        <v>-394.0675878972691</v>
+        <v>-398.387400848988</v>
       </c>
       <c r="D30">
-        <v>-4.54965479507019</v>
+        <v>-6.122562372362084</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0008333333333333339</v>
       </c>
       <c r="B31">
-        <v>413.3579934047072</v>
+        <v>419.67743864496</v>
       </c>
       <c r="C31">
-        <v>-414.087309947666</v>
+        <v>-419.2473876972143</v>
       </c>
       <c r="D31">
-        <v>0.1490228953437978</v>
+        <v>0.1228723208471227</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0008611111111111118</v>
       </c>
       <c r="B32">
-        <v>394.1644981677086</v>
+        <v>395.8604919939024</v>
       </c>
       <c r="C32">
-        <v>-414.4400253913607</v>
+        <v>-422.3127712951681</v>
       </c>
       <c r="D32">
-        <v>4.512558823016044</v>
+        <v>5.616452639455039</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0008888888888888896</v>
       </c>
       <c r="B33">
-        <v>375.7912336108388</v>
+        <v>385.4002267868133</v>
       </c>
       <c r="C33">
-        <v>-409.8627162945897</v>
+        <v>-425.9686523074854</v>
       </c>
       <c r="D33">
-        <v>24.81210967140323</v>
+        <v>24.04459018277766</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0009166666666666674</v>
       </c>
       <c r="B34">
-        <v>345.8215015217008</v>
+        <v>362.9584638980046</v>
       </c>
       <c r="C34">
-        <v>-394.8428001471356</v>
+        <v>-410.0686987466815</v>
       </c>
       <c r="D34">
-        <v>74.31423467512576</v>
+        <v>73.9990653178177</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.0009444444444444452</v>
       </c>
       <c r="B35">
-        <v>299.8096603347757</v>
+        <v>298.4917702313921</v>
       </c>
       <c r="C35">
-        <v>-381.7253090759411</v>
+        <v>-385.3853970045132</v>
       </c>
       <c r="D35">
-        <v>134.4516158469727</v>
+        <v>134.4773467498728</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.0009722222222222231</v>
       </c>
       <c r="B36">
-        <v>249.4481916295841</v>
+        <v>253.7230819823663</v>
       </c>
       <c r="C36">
-        <v>-391.9885341973164</v>
+        <v>-407.2618368583188</v>
       </c>
       <c r="D36">
-        <v>169.7714338573539</v>
+        <v>176.6797674957357</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="B37">
-        <v>219.4208277896624</v>
+        <v>226.7656612122462</v>
       </c>
       <c r="C37">
-        <v>-402.1593757480718</v>
+        <v>-414.6181506139709</v>
       </c>
       <c r="D37">
-        <v>183.6517737334972</v>
+        <v>188.6551801812933</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001027777777777779</v>
       </c>
       <c r="B38">
-        <v>208.8378883320397</v>
+        <v>213.6964274790479</v>
       </c>
       <c r="C38">
-        <v>-414.5643057047591</v>
+        <v>-418.3988737120587</v>
       </c>
       <c r="D38">
-        <v>199.1108632758083</v>
+        <v>200.0240589102528</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001055555555555557</v>
       </c>
       <c r="B39">
-        <v>199.6711589300031</v>
+        <v>201.7951574853047</v>
       </c>
       <c r="C39">
-        <v>-415.7645266372611</v>
+        <v>-420.2662228498581</v>
       </c>
       <c r="D39">
-        <v>209.2908810206106</v>
+        <v>213.3135986109799</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B40">
-        <v>183.5770232069306</v>
+        <v>187.1061496689216</v>
       </c>
       <c r="C40">
-        <v>-402.2768039723153</v>
+        <v>-412.201469871115</v>
       </c>
       <c r="D40">
-        <v>218.9792769337638</v>
+        <v>225.9367181386099</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001111111111111112</v>
       </c>
       <c r="B41">
-        <v>170.2370417727001</v>
+        <v>179.0684012271501</v>
       </c>
       <c r="C41">
-        <v>-392.9586940886171</v>
+        <v>-414.0113384125859</v>
       </c>
       <c r="D41">
-        <v>248.8123360950747</v>
+        <v>257.1228297667636</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00113888888888889</v>
       </c>
       <c r="B42">
-        <v>135.3497401219263</v>
+        <v>133.8649345540177</v>
       </c>
       <c r="C42">
-        <v>-382.3294617661365</v>
+        <v>-388.4924280612122</v>
       </c>
       <c r="D42">
-        <v>299.6070904058492</v>
+        <v>302.5480078186413</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001166666666666668</v>
       </c>
       <c r="B43">
-        <v>76.03784892814191</v>
+        <v>73.73399170148426</v>
       </c>
       <c r="C43">
-        <v>-394.6931011718771</v>
+        <v>-403.6932487482354</v>
       </c>
       <c r="D43">
-        <v>345.7902289489704</v>
+        <v>355.6119353217099</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001194444444444446</v>
       </c>
       <c r="B44">
-        <v>25.79602337555242</v>
+        <v>24.6757213871851</v>
       </c>
       <c r="C44">
-        <v>-410.2428120597775</v>
+        <v>-427.4662834016063</v>
       </c>
       <c r="D44">
-        <v>377.3302023551311</v>
+        <v>391.4940602416292</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001222222222222224</v>
       </c>
       <c r="B45">
-        <v>4.816356444541259</v>
+        <v>6.208728807384212</v>
       </c>
       <c r="C45">
-        <v>-414.2840380085592</v>
+        <v>-422.5745842643426</v>
       </c>
       <c r="D45">
-        <v>395.0418465462579</v>
+        <v>396.1642620934657</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001250000000000001</v>
       </c>
       <c r="B46">
-        <v>0.05821786620585634</v>
+        <v>0.4065307465253576</v>
       </c>
       <c r="C46">
-        <v>-414.3657766179851</v>
+        <v>-421.9973762001669</v>
       </c>
       <c r="D46">
-        <v>415.4924372816142</v>
+        <v>422.108644838724</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001277777777777779</v>
       </c>
       <c r="B47">
-        <v>-4.420491686226713</v>
+        <v>-6.179356419012683</v>
       </c>
       <c r="C47">
-        <v>-394.5287689944082</v>
+        <v>-399.9700568365514</v>
       </c>
       <c r="D47">
-        <v>415.5057566099084</v>
+        <v>425.4869075201833</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001305555555555557</v>
       </c>
       <c r="B48">
-        <v>-25.08703604139195</v>
+        <v>-25.20066601535725</v>
       </c>
       <c r="C48">
-        <v>-376.4593236612257</v>
+        <v>-386.4390511284315</v>
       </c>
       <c r="D48">
-        <v>410.6045451349402</v>
+        <v>425.6986638930843</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001333333333333335</v>
       </c>
       <c r="B49">
-        <v>-74.8874632238049</v>
+        <v>-74.51540989858313</v>
       </c>
       <c r="C49">
-        <v>-345.6483995025916</v>
+        <v>-361.7493256821619</v>
       </c>
       <c r="D49">
-        <v>393.8540498103353</v>
+        <v>408.356638460793</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001361111111111113</v>
       </c>
       <c r="B50">
-        <v>-134.6344982463511</v>
+        <v>-135.7083446312232</v>
       </c>
       <c r="C50">
-        <v>-299.6471133506236</v>
+        <v>-297.5349022464485</v>
       </c>
       <c r="D50">
-        <v>380.6314621467855</v>
+        <v>384.4280069511092</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B51">
-        <v>-169.6881508053871</v>
+        <v>-177.2244926796604</v>
       </c>
       <c r="C51">
-        <v>-249.1951800035029</v>
+        <v>-253.8982598516851</v>
       </c>
       <c r="D51">
-        <v>391.2637991575966</v>
+        <v>406.5279862749363</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001416666666666668</v>
       </c>
       <c r="B52">
-        <v>-183.5849973506559</v>
+        <v>-188.208394434633</v>
       </c>
       <c r="C52">
-        <v>-219.0376166468493</v>
+        <v>-226.8990677391408</v>
       </c>
       <c r="D52">
-        <v>401.1197487613711</v>
+        <v>414.4252704771797</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001444444444444446</v>
       </c>
       <c r="B53">
-        <v>-199.0292345499206</v>
+        <v>-199.2428918423214</v>
       </c>
       <c r="C53">
-        <v>-208.674132281595</v>
+        <v>-213.6917516902176</v>
       </c>
       <c r="D53">
-        <v>414.1153697541525</v>
+        <v>418.5183419570562</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001472222222222224</v>
       </c>
       <c r="B54">
-        <v>-208.8570206785139</v>
+        <v>-212.4146144815151</v>
       </c>
       <c r="C54">
-        <v>-199.6341849678002</v>
+        <v>-201.2579550057794</v>
       </c>
       <c r="D54">
-        <v>415.5404862448087</v>
+        <v>419.3043568601372</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001500000000000002</v>
       </c>
       <c r="B55">
-        <v>-218.8480636673986</v>
+        <v>-226.036735244887</v>
       </c>
       <c r="C55">
-        <v>-183.7798474711074</v>
+        <v>-186.678311878786</v>
       </c>
       <c r="D55">
-        <v>402.4663066139739</v>
+        <v>411.3787323323201</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00152777777777778</v>
       </c>
       <c r="B56">
-        <v>-248.7949306678082</v>
+        <v>-257.299424945866</v>
       </c>
       <c r="C56">
-        <v>-170.1443547824681</v>
+        <v>-178.2955304411685</v>
       </c>
       <c r="D56">
-        <v>392.7367107664026</v>
+        <v>412.7513832919203</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B57">
-        <v>-299.6071894065828</v>
+        <v>-302.4562612792698</v>
       </c>
       <c r="C57">
-        <v>-135.0153473428967</v>
+        <v>-133.1319878841</v>
       </c>
       <c r="D57">
-        <v>381.8410175962885</v>
+        <v>389.0417894517327</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001583333333333335</v>
       </c>
       <c r="B58">
-        <v>-345.0865972257881</v>
+        <v>-354.1781242328479</v>
       </c>
       <c r="C58">
-        <v>-75.71441105409737</v>
+        <v>-73.64296084302974</v>
       </c>
       <c r="D58">
-        <v>394.3472203605631</v>
+        <v>402.9212873352815</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001611111111111113</v>
       </c>
       <c r="B59">
-        <v>-376.3141696219375</v>
+        <v>-390.8963869599525</v>
       </c>
       <c r="C59">
-        <v>-25.66260773751316</v>
+        <v>-25.30682458202371</v>
       </c>
       <c r="D59">
-        <v>409.9335854748479</v>
+        <v>425.2377232217687</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001638888888888891</v>
       </c>
       <c r="B60">
-        <v>-393.8881644535377</v>
+        <v>-397.8511197471959</v>
       </c>
       <c r="C60">
-        <v>-4.788366812061517</v>
+        <v>-6.705341404713294</v>
       </c>
       <c r="D60">
-        <v>413.8478179611892</v>
+        <v>422.4038345488512</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001666666666666669</v>
       </c>
       <c r="B61">
-        <v>-414.3814373800313</v>
+        <v>-419.6517898530359</v>
       </c>
       <c r="C61">
-        <v>0.01435318996156898</v>
+        <v>-0.1122741111198033</v>
       </c>
       <c r="D61">
-        <v>413.7171393922563</v>
+        <v>421.0428217297103</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001694444444444447</v>
       </c>
       <c r="B62">
-        <v>-414.4705748279476</v>
+        <v>-423.204075574361</v>
       </c>
       <c r="C62">
-        <v>4.478043766584117</v>
+        <v>5.922240447187588</v>
       </c>
       <c r="D62">
-        <v>394.710541048366</v>
+        <v>400.0429666822201</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B63">
-        <v>-409.6699866825696</v>
+        <v>-426.3510295922239</v>
       </c>
       <c r="C63">
-        <v>24.80510189575247</v>
+        <v>24.56569326434649</v>
       </c>
       <c r="D63">
-        <v>376.3966814616962</v>
+        <v>387.3335893820114</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001750000000000002</v>
       </c>
       <c r="B64">
-        <v>-394.897794925112</v>
+        <v>-410.6876109009842</v>
       </c>
       <c r="C64">
-        <v>74.55811777981214</v>
+        <v>74.12980251615575</v>
       </c>
       <c r="D64">
-        <v>346.2872516483921</v>
+        <v>361.5831558521834</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00177777777777778</v>
       </c>
       <c r="B65">
-        <v>-382.0277697872198</v>
+        <v>-387.473837841097</v>
       </c>
       <c r="C65">
-        <v>134.7059394077557</v>
+        <v>134.3736754695674</v>
       </c>
       <c r="D65">
-        <v>299.8691328129494</v>
+        <v>297.9021497394713</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001805555555555558</v>
       </c>
       <c r="B66">
-        <v>-392.3370626896976</v>
+        <v>-408.9183343702695</v>
       </c>
       <c r="C66">
-        <v>169.971373941434</v>
+        <v>176.9243113208688</v>
       </c>
       <c r="D66">
-        <v>249.2215097335711</v>
+        <v>255.0692968108056</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001833333333333336</v>
       </c>
       <c r="B67">
-        <v>-401.9120409142317</v>
+        <v>-414.2509117550059</v>
       </c>
       <c r="C67">
-        <v>183.5443731251444</v>
+        <v>188.4682744312105</v>
       </c>
       <c r="D67">
-        <v>219.4130550486286</v>
+        <v>227.9196488289315</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.001861111111111114</v>
       </c>
       <c r="B68">
-        <v>-414.2831369585335</v>
+        <v>-418.530093853795</v>
       </c>
       <c r="C68">
-        <v>199.0164772595985</v>
+        <v>200.4283563183548</v>
       </c>
       <c r="D68">
-        <v>208.9532874492638</v>
+        <v>213.5871463974507</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.001888888888888891</v>
       </c>
       <c r="B69">
-        <v>-415.0928298548171</v>
+        <v>-421.0761168263596</v>
       </c>
       <c r="C69">
-        <v>208.8971911758584</v>
+        <v>213.6117823008821</v>
       </c>
       <c r="D69">
-        <v>199.5044909676907</v>
+        <v>200.8364382191785</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.001916666666666669</v>
       </c>
       <c r="B70">
-        <v>-402.9868276547387</v>
+        <v>-412.9073906602478</v>
       </c>
       <c r="C70">
-        <v>219.1581240670319</v>
+        <v>226.0090109642399</v>
       </c>
       <c r="D70">
-        <v>183.5954061858447</v>
+        <v>186.8106016760351</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.001944444444444447</v>
       </c>
       <c r="B71">
-        <v>-393.7907801762502</v>
+        <v>-412.320382535867</v>
       </c>
       <c r="C71">
-        <v>249.0308337694123</v>
+        <v>256.0004094530349</v>
       </c>
       <c r="D71">
-        <v>170.243644368725</v>
+        <v>178.8674028139559</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.001972222222222225</v>
       </c>
       <c r="B72">
-        <v>-383.2302482389218</v>
+        <v>-387.0941876305695</v>
       </c>
       <c r="C72">
-        <v>299.7254283867322</v>
+        <v>301.4775373023556</v>
       </c>
       <c r="D72">
-        <v>135.1854237345997</v>
+        <v>134.8243335345237</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B73">
-        <v>-396.2042836588593</v>
+        <v>-403.1257919929674</v>
       </c>
       <c r="C73">
-        <v>345.8274579613888</v>
+        <v>355.1444007380636</v>
       </c>
       <c r="D73">
-        <v>75.5987409471297</v>
+        <v>74.11709881875589</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00202777777777778</v>
       </c>
       <c r="B74">
-        <v>-410.7543908682925</v>
+        <v>-427.6556612944825</v>
       </c>
       <c r="C74">
-        <v>376.9281107791435</v>
+        <v>391.7755839044135</v>
       </c>
       <c r="D74">
-        <v>25.38601185561673</v>
+        <v>24.68855767362555</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B75">
-        <v>-413.6364726336035</v>
+        <v>-424.6565345111426</v>
       </c>
       <c r="C75">
-        <v>394.1033070996375</v>
+        <v>398.4098561801113</v>
       </c>
       <c r="D75">
-        <v>4.534108044647156</v>
+        <v>6.106899556259648</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002083333333333335</v>
       </c>
       <c r="B76">
-        <v>-413.3446432577928</v>
+        <v>-419.6563343556672</v>
       </c>
       <c r="C76">
-        <v>414.1021371953942</v>
+        <v>419.2700247955368</v>
       </c>
       <c r="D76">
-        <v>-0.150749792330207</v>
+        <v>-0.1267286248249344</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B77">
-        <v>-394.12736119447</v>
+        <v>-395.829948043807</v>
       </c>
       <c r="C77">
-        <v>414.4305486234543</v>
+        <v>422.3130580913066</v>
       </c>
       <c r="D77">
-        <v>-4.526828543032657</v>
+        <v>-5.630614036605808</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.00213888888888889</v>
       </c>
       <c r="B78">
-        <v>-375.7713178268738</v>
+        <v>-385.4032960473069</v>
       </c>
       <c r="C78">
-        <v>409.8565823872609</v>
+        <v>425.9728372862685</v>
       </c>
       <c r="D78">
-        <v>-24.85950201879072</v>
+        <v>-24.08957944046358</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002166666666666668</v>
       </c>
       <c r="B79">
-        <v>-345.7598653307662</v>
+        <v>-362.869059409289</v>
       </c>
       <c r="C79">
-        <v>394.8125590636748</v>
+        <v>410.0185544473677</v>
       </c>
       <c r="D79">
-        <v>-74.40791691557691</v>
+        <v>-74.09274958279671</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002194444444444445</v>
       </c>
       <c r="B80">
-        <v>-299.7360986951535</v>
+        <v>-298.4152623360531</v>
       </c>
       <c r="C80">
-        <v>381.7243166469591</v>
+        <v>385.3895102572799</v>
       </c>
       <c r="D80">
-        <v>-134.5201885086057</v>
+        <v>-134.5539579696767</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B81">
-        <v>-249.3851327206885</v>
+        <v>-253.6734335562602</v>
       </c>
       <c r="C81">
-        <v>392.0071087370726</v>
+        <v>407.2996457995095</v>
       </c>
       <c r="D81">
-        <v>-169.803366596361</v>
+        <v>-176.7221301229318</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002250000000000001</v>
       </c>
       <c r="B82">
-        <v>-219.3942142444019</v>
+        <v>-226.7354293896501</v>
       </c>
       <c r="C82">
-        <v>402.1727666570123</v>
+        <v>414.6082589164282</v>
       </c>
       <c r="D82">
-        <v>-183.6682947997572</v>
+        <v>-188.6584649531911</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002277777777777778</v>
       </c>
       <c r="B83">
-        <v>-208.8290798081924</v>
+        <v>-213.6883784658669</v>
       </c>
       <c r="C83">
-        <v>414.5795404360643</v>
+        <v>418.4170183128909</v>
       </c>
       <c r="D83">
-        <v>-199.1325976975077</v>
+        <v>-200.0486883870425</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002305555555555556</v>
       </c>
       <c r="B84">
-        <v>-199.6497096225609</v>
+        <v>-201.7689665462763</v>
       </c>
       <c r="C84">
-        <v>415.7500282923544</v>
+        <v>420.2519156473879</v>
       </c>
       <c r="D84">
-        <v>-209.2992548049326</v>
+        <v>-213.3255373913018</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B85">
-        <v>-183.5607671089698</v>
+        <v>-187.088333929433</v>
       </c>
       <c r="C85">
-        <v>402.2647021029616</v>
+        <v>412.1953935586903</v>
       </c>
       <c r="D85">
-        <v>-219.0072300513175</v>
+        <v>-225.9662782252925</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002361111111111111</v>
       </c>
       <c r="B86">
-        <v>-170.2044291551435</v>
+        <v>-179.0415971820308</v>
       </c>
       <c r="C86">
-        <v>392.9392104098927</v>
+        <v>413.9991762355975</v>
       </c>
       <c r="D86">
-        <v>-248.8731152203804</v>
+        <v>-257.1813036472487</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002388888888888889</v>
       </c>
       <c r="B87">
-        <v>-135.2820766552367</v>
+        <v>-133.7831524146629</v>
       </c>
       <c r="C87">
-        <v>382.3279600689801</v>
+        <v>388.4684567908052</v>
       </c>
       <c r="D87">
-        <v>-299.6816716224882</v>
+        <v>-302.6159647337664</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B88">
-        <v>-75.9453997438959</v>
+        <v>-73.64367869973798</v>
       </c>
       <c r="C88">
-        <v>394.7241420918709</v>
+        <v>403.742345710338</v>
       </c>
       <c r="D88">
-        <v>-345.8524371850418</v>
+        <v>-355.6888097538649</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002444444444444444</v>
       </c>
       <c r="B89">
-        <v>-25.7474548278438</v>
+        <v>-24.62983294237192</v>
       </c>
       <c r="C89">
-        <v>410.251599709018</v>
+        <v>427.4740309247906</v>
       </c>
       <c r="D89">
-        <v>-377.3537069239748</v>
+        <v>-391.5082380003454</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002472222222222222</v>
       </c>
       <c r="B90">
-        <v>-4.800829390021133</v>
+        <v>-6.19460729265664</v>
       </c>
       <c r="C90">
-        <v>414.2894070669051</v>
+        <v>422.5701926293486</v>
       </c>
       <c r="D90">
-        <v>-395.0758934555108</v>
+        <v>-396.1919407742734</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage6000.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage6000.xlsx
@@ -408,13 +408,13 @@
         <v>2.777777777777778e-05</v>
       </c>
       <c r="B2">
-        <v>6.162692132467007</v>
+        <v>4.644944970995935</v>
       </c>
       <c r="C2">
-        <v>399.996588094116</v>
+        <v>404.2093844056227</v>
       </c>
       <c r="D2">
-        <v>-425.4867022929072</v>
+        <v>-425.8663205590846</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>5.555555555555556e-05</v>
       </c>
       <c r="B3">
-        <v>25.15442955462715</v>
+        <v>25.78852364436168</v>
       </c>
       <c r="C3">
-        <v>386.4406009847643</v>
+        <v>386.2827872639738</v>
       </c>
       <c r="D3">
-        <v>-425.6977689386462</v>
+        <v>-421.3909741711515</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>8.333333333333334e-05</v>
       </c>
       <c r="B4">
-        <v>74.42281592443922</v>
+        <v>76.73821451371217</v>
       </c>
       <c r="C4">
-        <v>361.8430920871265</v>
+        <v>354.7989202464047</v>
       </c>
       <c r="D4">
-        <v>-408.4100537037461</v>
+        <v>-404.5542808391114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0001111111111111111</v>
       </c>
       <c r="B5">
-        <v>135.6324878482681</v>
+        <v>137.8414011685253</v>
       </c>
       <c r="C5">
-        <v>297.607872605537</v>
+        <v>306.9178643797077</v>
       </c>
       <c r="D5">
-        <v>-384.4210627536651</v>
+        <v>-390.0188963403503</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0001388888888888889</v>
       </c>
       <c r="B6">
-        <v>177.1849884643564</v>
+        <v>174.0608279528255</v>
       </c>
       <c r="C6">
-        <v>253.9506550464554</v>
+        <v>255.5856293757169</v>
       </c>
       <c r="D6">
-        <v>-406.4938907100059</v>
+        <v>-401.3547563595281</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0001666666666666667</v>
       </c>
       <c r="B7">
-        <v>188.2058861730404</v>
+        <v>187.9178405891804</v>
       </c>
       <c r="C7">
-        <v>226.9277352632229</v>
+        <v>224.3717690230751</v>
       </c>
       <c r="D7">
-        <v>-414.4318709901715</v>
+        <v>-410.6336977689406</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0001944444444444444</v>
       </c>
       <c r="B8">
-        <v>199.2171851925867</v>
+        <v>204.4846832295363</v>
       </c>
       <c r="C8">
-        <v>213.7001796193439</v>
+        <v>214.5801420596757</v>
       </c>
       <c r="D8">
-        <v>-418.5003651343301</v>
+        <v>-425.8427810635184</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0002222222222222222</v>
       </c>
       <c r="B9">
-        <v>212.4017118492216</v>
+        <v>214.2242386416765</v>
       </c>
       <c r="C9">
-        <v>201.2841105730031</v>
+        <v>204.6971482455295</v>
       </c>
       <c r="D9">
-        <v>-419.3179219221806</v>
+        <v>-426.3536896689165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.00025</v>
       </c>
       <c r="B10">
-        <v>226.0062563804138</v>
+        <v>224.5575879059308</v>
       </c>
       <c r="C10">
-        <v>186.696446864211</v>
+        <v>188.2620176031044</v>
       </c>
       <c r="D10">
-        <v>-411.3866133671806</v>
+        <v>-412.5882346464113</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0002777777777777778</v>
       </c>
       <c r="B11">
-        <v>257.2414338939521</v>
+        <v>255.4231805296703</v>
       </c>
       <c r="C11">
-        <v>178.3235558454815</v>
+        <v>174.7088665775134</v>
       </c>
       <c r="D11">
-        <v>-412.7627814974745</v>
+        <v>-403.2773700572119</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0003055555555555555</v>
       </c>
       <c r="B12">
-        <v>302.3908246798782</v>
+        <v>307.1267371417583</v>
       </c>
       <c r="C12">
-        <v>133.2127773795019</v>
+        <v>138.2110091227254</v>
       </c>
       <c r="D12">
-        <v>-389.0651871374336</v>
+        <v>-391.4309195732149</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0003333333333333333</v>
       </c>
       <c r="B13">
-        <v>354.1009954474486</v>
+        <v>353.537393248651</v>
       </c>
       <c r="C13">
-        <v>73.73120134144622</v>
+        <v>77.59606161316962</v>
       </c>
       <c r="D13">
-        <v>-402.8753905424167</v>
+        <v>-404.4506860662478</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.0003611111111111111</v>
       </c>
       <c r="B14">
-        <v>390.8775730005599</v>
+        <v>385.839982242276</v>
       </c>
       <c r="C14">
-        <v>25.35235003439245</v>
+        <v>26.34554047164284</v>
       </c>
       <c r="D14">
-        <v>-425.2278012957771</v>
+        <v>-420.2922553804529</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0003888888888888889</v>
       </c>
       <c r="B15">
-        <v>397.8267415358976</v>
+        <v>403.7420890409185</v>
       </c>
       <c r="C15">
-        <v>6.721358049160686</v>
+        <v>4.882113426737112</v>
       </c>
       <c r="D15">
-        <v>-422.4073888183083</v>
+        <v>-424.1285292518015</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.0004166666666666666</v>
       </c>
       <c r="B16">
-        <v>419.6296970094934</v>
+        <v>425.6044016660904</v>
       </c>
       <c r="C16">
-        <v>0.1164294317615444</v>
+        <v>-0.07627350415512213</v>
       </c>
       <c r="D16">
-        <v>-421.0613937949847</v>
+        <v>-425.2692801146687</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.0004444444444444444</v>
       </c>
       <c r="B17">
-        <v>423.2038924608912</v>
+        <v>424.6089127237512</v>
       </c>
       <c r="C17">
-        <v>-5.907426652835557</v>
+        <v>-4.609974457545074</v>
       </c>
       <c r="D17">
-        <v>-400.0711139617702</v>
+        <v>-404.01233669622</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.0004722222222222222</v>
       </c>
       <c r="B18">
-        <v>426.3437900811699</v>
+        <v>420.4399749551174</v>
       </c>
       <c r="C18">
-        <v>-24.51905428501461</v>
+        <v>-25.49515017545772</v>
       </c>
       <c r="D18">
-        <v>-387.3326518037401</v>
+        <v>-386.2376375774018</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0005</v>
       </c>
       <c r="B19">
-        <v>410.7402505989672</v>
+        <v>405.6681624122047</v>
       </c>
       <c r="C19">
-        <v>-74.03759370760794</v>
+        <v>-76.38556411782044</v>
       </c>
       <c r="D19">
-        <v>-361.6790474008774</v>
+        <v>-355.5449198129734</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.0005277777777777778</v>
       </c>
       <c r="B20">
-        <v>387.4673531377724</v>
+        <v>391.6215203638233</v>
       </c>
       <c r="C20">
-        <v>-134.2977337459128</v>
+        <v>-137.9682931838588</v>
       </c>
       <c r="D20">
-        <v>-297.9746381504542</v>
+        <v>-307.1954063807042</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.0005555555555555557</v>
       </c>
       <c r="B21">
-        <v>408.8843911826791</v>
+        <v>402.4062910880315</v>
       </c>
       <c r="C21">
-        <v>-176.8827349053984</v>
+        <v>-174.2827191972648</v>
       </c>
       <c r="D21">
-        <v>-255.1180663634528</v>
+        <v>-255.6068807065745</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0005833333333333335</v>
       </c>
       <c r="B22">
-        <v>414.258976225069</v>
+        <v>411.4559350324217</v>
       </c>
       <c r="C22">
-        <v>-188.4631341928106</v>
+        <v>-187.79906919071</v>
       </c>
       <c r="D22">
-        <v>-227.9492668317576</v>
+        <v>-224.6602792465086</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.0006111111111111113</v>
       </c>
       <c r="B23">
-        <v>418.5125533900207</v>
+        <v>425.9502030404266</v>
       </c>
       <c r="C23">
-        <v>-200.4045246367967</v>
+        <v>-204.5644919715314</v>
       </c>
       <c r="D23">
-        <v>-213.5986568768178</v>
+        <v>-214.7624537247744</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.0006388888888888891</v>
       </c>
       <c r="B24">
-        <v>421.0890210914802</v>
+        <v>425.8311659315666</v>
       </c>
       <c r="C24">
-        <v>-213.5994986015402</v>
+        <v>-214.3273617582508</v>
       </c>
       <c r="D24">
-        <v>-200.8625702757238</v>
+        <v>-204.445330807044</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.000666666666666667</v>
       </c>
       <c r="B25">
-        <v>412.9160713416319</v>
+        <v>413.0684603118478</v>
       </c>
       <c r="C25">
-        <v>-225.9809330419868</v>
+        <v>-224.8697803755642</v>
       </c>
       <c r="D25">
-        <v>-186.8276349007825</v>
+        <v>-188.0127891891761</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.0006944444444444448</v>
       </c>
       <c r="B26">
-        <v>412.3330640347242</v>
+        <v>404.2803167809689</v>
       </c>
       <c r="C26">
-        <v>-255.9417254976365</v>
+        <v>-255.5891261384646</v>
       </c>
       <c r="D26">
-        <v>-178.8928309111279</v>
+        <v>-174.7757952330528</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.0007222222222222226</v>
       </c>
       <c r="B27">
-        <v>387.1213185704667</v>
+        <v>392.9224630905329</v>
       </c>
       <c r="C27">
-        <v>-301.41220601898</v>
+        <v>-307.2244249939507</v>
       </c>
       <c r="D27">
-        <v>-134.9059961448501</v>
+        <v>-138.4057915636369</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.0007500000000000004</v>
       </c>
       <c r="B28">
-        <v>403.073786206182</v>
+        <v>406.2482489679173</v>
       </c>
       <c r="C28">
-        <v>-355.0654316301266</v>
+        <v>-354.2994121164411</v>
       </c>
       <c r="D28">
-        <v>-74.208198853212</v>
+        <v>-77.45379185515267</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.0007777777777777783</v>
       </c>
       <c r="B29">
-        <v>427.64516052879</v>
+        <v>421.0223038834342</v>
       </c>
       <c r="C29">
-        <v>-391.7570070507381</v>
+        <v>-386.4496522675438</v>
       </c>
       <c r="D29">
-        <v>-24.73410904192786</v>
+        <v>-26.02866251585706</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.0008055555555555561</v>
       </c>
       <c r="B30">
-        <v>424.6637108419801</v>
+        <v>424.1724774719713</v>
       </c>
       <c r="C30">
-        <v>-398.387400848988</v>
+        <v>-404.1228429247271</v>
       </c>
       <c r="D30">
-        <v>-6.122562372362084</v>
+        <v>-4.693295968843104</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.0008333333333333339</v>
       </c>
       <c r="B31">
-        <v>419.67743864496</v>
+        <v>424.9333009409856</v>
       </c>
       <c r="C31">
-        <v>-419.2473876972143</v>
+        <v>-425.3554710287738</v>
       </c>
       <c r="D31">
-        <v>0.1228723208471227</v>
+        <v>0.1603349049045244</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.0008611111111111118</v>
       </c>
       <c r="B32">
-        <v>395.8604919939024</v>
+        <v>403.3684836938638</v>
       </c>
       <c r="C32">
-        <v>-422.3127712951681</v>
+        <v>-424.4620151165375</v>
       </c>
       <c r="D32">
-        <v>5.616452639455039</v>
+        <v>4.696679291488482</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.0008888888888888896</v>
       </c>
       <c r="B33">
-        <v>385.4002267868133</v>
+        <v>385.3974544797173</v>
       </c>
       <c r="C33">
-        <v>-425.9686523074854</v>
+        <v>-420.4818420434282</v>
       </c>
       <c r="D33">
-        <v>24.04459018277766</v>
+        <v>25.61961722842371</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.0009166666666666674</v>
       </c>
       <c r="B34">
-        <v>362.9584638980046</v>
+        <v>354.9098727146585</v>
       </c>
       <c r="C34">
-        <v>-410.0686987466815</v>
+        <v>-405.4721417489018</v>
       </c>
       <c r="D34">
-        <v>73.9990653178177</v>
+        <v>76.25018747309032</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.0009444444444444452</v>
       </c>
       <c r="B35">
-        <v>298.4917702313921</v>
+        <v>307.1373127345639</v>
       </c>
       <c r="C35">
-        <v>-385.3853970045132</v>
+        <v>-391.2616727188467</v>
       </c>
       <c r="D35">
-        <v>134.4773467498728</v>
+        <v>137.6985365055697</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.0009722222222222231</v>
       </c>
       <c r="B36">
-        <v>253.7230819823663</v>
+        <v>255.7435217769355</v>
       </c>
       <c r="C36">
-        <v>-407.2618368583188</v>
+        <v>-401.9313757849616</v>
       </c>
       <c r="D36">
-        <v>176.6797674957357</v>
+        <v>174.1138635294501</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.001000000000000001</v>
       </c>
       <c r="B37">
-        <v>226.7656612122462</v>
+        <v>224.588381867395</v>
       </c>
       <c r="C37">
-        <v>-414.6181506139709</v>
+        <v>-411.6280292333381</v>
       </c>
       <c r="D37">
-        <v>188.6551801812933</v>
+        <v>187.9486983250511</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.001027777777777779</v>
       </c>
       <c r="B38">
-        <v>213.6964274790479</v>
+        <v>214.5788544717653</v>
       </c>
       <c r="C38">
-        <v>-418.3988737120587</v>
+        <v>-426.1188542821192</v>
       </c>
       <c r="D38">
-        <v>200.0240589102528</v>
+        <v>204.6321162829204</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.001055555555555557</v>
       </c>
       <c r="B39">
-        <v>201.7951574853047</v>
+        <v>204.7462261476235</v>
       </c>
       <c r="C39">
-        <v>-420.2662228498581</v>
+        <v>-426.4421162810396</v>
       </c>
       <c r="D39">
-        <v>213.3135986109799</v>
+        <v>214.5923289703847</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.001083333333333334</v>
       </c>
       <c r="B40">
-        <v>187.1061496689216</v>
+        <v>188.0396734469478</v>
       </c>
       <c r="C40">
-        <v>-412.201469871115</v>
+        <v>-412.1095592850215</v>
       </c>
       <c r="D40">
-        <v>225.9367181386099</v>
+        <v>224.5690393974217</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.001111111111111112</v>
       </c>
       <c r="B41">
-        <v>179.0684012271501</v>
+        <v>174.7132861664899</v>
       </c>
       <c r="C41">
-        <v>-414.0113384125859</v>
+        <v>-403.388153333766</v>
       </c>
       <c r="D41">
-        <v>257.1228297667636</v>
+        <v>255.4288542094871</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.00113888888888889</v>
       </c>
       <c r="B42">
-        <v>133.8649345540177</v>
+        <v>138.3972355761001</v>
       </c>
       <c r="C42">
-        <v>-388.4924280612122</v>
+        <v>-392.0474033394031</v>
       </c>
       <c r="D42">
-        <v>302.5480078186413</v>
+        <v>307.3315198891943</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.001166666666666668</v>
       </c>
       <c r="B43">
-        <v>73.73399170148426</v>
+        <v>77.83157755908515</v>
       </c>
       <c r="C43">
-        <v>-403.6932487482354</v>
+        <v>-404.8056608965252</v>
       </c>
       <c r="D43">
-        <v>355.6119353217099</v>
+        <v>354.3547913768977</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.001194444444444446</v>
       </c>
       <c r="B44">
-        <v>24.6757213871851</v>
+        <v>26.44407331750281</v>
       </c>
       <c r="C44">
-        <v>-427.4662834016063</v>
+        <v>-420.3714613219747</v>
       </c>
       <c r="D44">
-        <v>391.4940602416292</v>
+        <v>386.7338806644864</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.001222222222222224</v>
       </c>
       <c r="B45">
-        <v>6.208728807384212</v>
+        <v>4.91350097314075</v>
       </c>
       <c r="C45">
-        <v>-422.5745842643426</v>
+        <v>-424.5714858043609</v>
       </c>
       <c r="D45">
-        <v>396.1642620934657</v>
+        <v>404.9637082981945</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.001250000000000001</v>
       </c>
       <c r="B46">
-        <v>0.4065307465253576</v>
+        <v>-0.02238581221891689</v>
       </c>
       <c r="C46">
-        <v>-421.9973762001669</v>
+        <v>-426.0369227466911</v>
       </c>
       <c r="D46">
-        <v>422.108644838724</v>
+        <v>426.8630260272525</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.001277777777777779</v>
       </c>
       <c r="B47">
-        <v>-6.179356419012683</v>
+        <v>-4.660587756489532</v>
       </c>
       <c r="C47">
-        <v>-399.9700568365514</v>
+        <v>-404.1734457854038</v>
       </c>
       <c r="D47">
-        <v>425.4869075201833</v>
+        <v>425.8594539792215</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.001305555555555557</v>
       </c>
       <c r="B48">
-        <v>-25.20066601535725</v>
+        <v>-25.83659339153027</v>
       </c>
       <c r="C48">
-        <v>-386.4390511284315</v>
+        <v>-386.2596890412318</v>
       </c>
       <c r="D48">
-        <v>425.6986638930843</v>
+        <v>421.3803685214135</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.001333333333333335</v>
       </c>
       <c r="B49">
-        <v>-74.51540989858313</v>
+        <v>-76.83383221075729</v>
       </c>
       <c r="C49">
-        <v>-361.7493256821619</v>
+        <v>-354.7341130555001</v>
       </c>
       <c r="D49">
-        <v>408.356638460793</v>
+        <v>404.5213352510793</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.001361111111111113</v>
       </c>
       <c r="B50">
-        <v>-135.7083446312232</v>
+        <v>-137.9113436093185</v>
       </c>
       <c r="C50">
-        <v>-297.5349022464485</v>
+        <v>-306.8436908418792</v>
       </c>
       <c r="D50">
-        <v>384.4280069511092</v>
+        <v>390.019044179597</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.00138888888888889</v>
       </c>
       <c r="B51">
-        <v>-177.2244926796604</v>
+        <v>-174.0939895787974</v>
       </c>
       <c r="C51">
-        <v>-253.8982598516851</v>
+        <v>-255.5210476453901</v>
       </c>
       <c r="D51">
-        <v>406.5279862749363</v>
+        <v>401.3741538847597</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.001416666666666668</v>
       </c>
       <c r="B52">
-        <v>-188.208394434633</v>
+        <v>-187.9369611651646</v>
       </c>
       <c r="C52">
-        <v>-226.8990677391408</v>
+        <v>-224.3469136811613</v>
       </c>
       <c r="D52">
-        <v>414.4252704771797</v>
+        <v>410.6499139567877</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.001444444444444446</v>
       </c>
       <c r="B53">
-        <v>-199.2428918423214</v>
+        <v>-204.5073684711507</v>
       </c>
       <c r="C53">
-        <v>-213.6917516902176</v>
+        <v>-214.5725533088788</v>
       </c>
       <c r="D53">
-        <v>418.5183419570562</v>
+        <v>425.8632071248132</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.001472222222222224</v>
       </c>
       <c r="B54">
-        <v>-212.4146144815151</v>
+        <v>-214.2315229419719</v>
       </c>
       <c r="C54">
-        <v>-201.2579550057794</v>
+        <v>-204.6728970520487</v>
       </c>
       <c r="D54">
-        <v>419.3043568601372</v>
+        <v>426.3343808090328</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.001500000000000002</v>
       </c>
       <c r="B55">
-        <v>-226.036735244887</v>
+        <v>-224.5858296436842</v>
       </c>
       <c r="C55">
-        <v>-186.678311878786</v>
+        <v>-188.2450018037898</v>
       </c>
       <c r="D55">
-        <v>411.3787323323201</v>
+        <v>412.5750187031368</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.00152777777777778</v>
       </c>
       <c r="B56">
-        <v>-257.299424945866</v>
+        <v>-255.483692856324</v>
       </c>
       <c r="C56">
-        <v>-178.2955304411685</v>
+        <v>-174.6739441292428</v>
       </c>
       <c r="D56">
-        <v>412.7513832919203</v>
+        <v>403.2552899930785</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.001555555555555557</v>
       </c>
       <c r="B57">
-        <v>-302.4562612792698</v>
+        <v>-307.2033609456776</v>
       </c>
       <c r="C57">
-        <v>-133.1319878841</v>
+        <v>-138.142003328191</v>
       </c>
       <c r="D57">
-        <v>389.0417894517327</v>
+        <v>391.4304610765896</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.001583333333333335</v>
       </c>
       <c r="B58">
-        <v>-354.1781242328479</v>
+        <v>-353.5996091278653</v>
       </c>
       <c r="C58">
-        <v>-73.64296084302974</v>
+        <v>-77.50108187427163</v>
       </c>
       <c r="D58">
-        <v>402.9212873352815</v>
+        <v>404.4820013736076</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.001611111111111113</v>
       </c>
       <c r="B59">
-        <v>-390.8963869599525</v>
+        <v>-385.8649842872999</v>
       </c>
       <c r="C59">
-        <v>-25.30682458202371</v>
+        <v>-26.29642312189873</v>
       </c>
       <c r="D59">
-        <v>425.2377232217687</v>
+        <v>420.3020314270893</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.001638888888888891</v>
       </c>
       <c r="B60">
-        <v>-397.8511197471959</v>
+        <v>-403.7795764601328</v>
       </c>
       <c r="C60">
-        <v>-6.705341404713294</v>
+        <v>-4.865792499648136</v>
       </c>
       <c r="D60">
-        <v>422.4038345488512</v>
+        <v>424.1361759782278</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.001666666666666669</v>
       </c>
       <c r="B61">
-        <v>-419.6517898530359</v>
+        <v>-425.6189402488776</v>
       </c>
       <c r="C61">
-        <v>-0.1122741111198033</v>
+        <v>0.07774044268576974</v>
       </c>
       <c r="D61">
-        <v>421.0428217297103</v>
+        <v>425.255482599204</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.001694444444444447</v>
       </c>
       <c r="B62">
-        <v>-423.204075574361</v>
+        <v>-424.5988295831833</v>
       </c>
       <c r="C62">
-        <v>5.922240447187588</v>
+        <v>4.62484092901394</v>
       </c>
       <c r="D62">
-        <v>400.0429666822201</v>
+        <v>403.974276589493</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.001722222222222224</v>
       </c>
       <c r="B63">
-        <v>-426.3510295922239</v>
+        <v>-420.4325327109169</v>
       </c>
       <c r="C63">
-        <v>24.56569326434649</v>
+        <v>25.54374617425692</v>
       </c>
       <c r="D63">
-        <v>387.3335893820114</v>
+        <v>386.2161078515876</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.001750000000000002</v>
       </c>
       <c r="B64">
-        <v>-410.6876109009842</v>
+        <v>-405.6376145393352</v>
       </c>
       <c r="C64">
-        <v>74.12980251615575</v>
+        <v>76.48155173474863</v>
       </c>
       <c r="D64">
-        <v>361.5831558521834</v>
+        <v>355.4804202797498</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.00177777777777778</v>
       </c>
       <c r="B65">
-        <v>-387.473837841097</v>
+        <v>-391.6201888110128</v>
       </c>
       <c r="C65">
-        <v>134.3736754695674</v>
+        <v>138.0385113557692</v>
       </c>
       <c r="D65">
-        <v>297.9021497394713</v>
+        <v>307.1194074853872</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.001805555555555558</v>
       </c>
       <c r="B66">
-        <v>-408.9183343702695</v>
+        <v>-402.4296576063337</v>
       </c>
       <c r="C66">
-        <v>176.9243113208688</v>
+        <v>174.3178140741403</v>
       </c>
       <c r="D66">
-        <v>255.0692968108056</v>
+        <v>255.5462863529373</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.001833333333333336</v>
       </c>
       <c r="B67">
-        <v>-414.2509117550059</v>
+        <v>-411.4657854640699</v>
       </c>
       <c r="C67">
-        <v>188.4682744312105</v>
+        <v>187.8143102261237</v>
       </c>
       <c r="D67">
-        <v>227.9196488289315</v>
+        <v>224.6305429196618</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.001861111111111114</v>
       </c>
       <c r="B68">
-        <v>-418.530093853795</v>
+        <v>-425.9702548490446</v>
       </c>
       <c r="C68">
-        <v>200.4283563183548</v>
+        <v>204.588468688793</v>
       </c>
       <c r="D68">
-        <v>213.5871463974507</v>
+        <v>214.755960798283</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.001888888888888891</v>
       </c>
       <c r="B69">
-        <v>-421.0761168263596</v>
+        <v>-425.8123392334047</v>
       </c>
       <c r="C69">
-        <v>213.6117823008821</v>
+        <v>214.3349343909168</v>
       </c>
       <c r="D69">
-        <v>200.8364382191785</v>
+        <v>204.4203862882152</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.001916666666666669</v>
       </c>
       <c r="B70">
-        <v>-412.9073906602478</v>
+        <v>-413.0577839470423</v>
       </c>
       <c r="C70">
-        <v>226.0090109642399</v>
+        <v>224.8988890998377</v>
       </c>
       <c r="D70">
-        <v>186.8106016760351</v>
+        <v>187.996995016553</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.001944444444444447</v>
       </c>
       <c r="B71">
-        <v>-412.320382535867</v>
+        <v>-404.2602200453668</v>
       </c>
       <c r="C71">
-        <v>256.0004094530349</v>
+        <v>255.6507947243858</v>
       </c>
       <c r="D71">
-        <v>178.8674028139559</v>
+        <v>174.7423895817335</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.001972222222222225</v>
       </c>
       <c r="B72">
-        <v>-387.0941876305695</v>
+        <v>-392.9215200324873</v>
       </c>
       <c r="C72">
-        <v>301.4775373023556</v>
+        <v>307.3001659782868</v>
       </c>
       <c r="D72">
-        <v>134.8243335345237</v>
+        <v>138.3358496800829</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.002000000000000002</v>
       </c>
       <c r="B73">
-        <v>-403.1257919929674</v>
+        <v>-406.2794575726416</v>
       </c>
       <c r="C73">
-        <v>355.1444007380636</v>
+        <v>354.3626579980896</v>
       </c>
       <c r="D73">
-        <v>74.11709881875589</v>
+        <v>77.35785036413922</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.00202777777777778</v>
       </c>
       <c r="B74">
-        <v>-427.6556612944825</v>
+        <v>-421.0305806847056</v>
       </c>
       <c r="C74">
-        <v>391.7755839044135</v>
+        <v>386.4745389626639</v>
       </c>
       <c r="D74">
-        <v>24.68855767362555</v>
+        <v>25.98011176837722</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.002055555555555557</v>
       </c>
       <c r="B75">
-        <v>-424.6565345111426</v>
+        <v>-424.1776583726976</v>
       </c>
       <c r="C75">
-        <v>398.4098561801113</v>
+        <v>404.1572766833565</v>
       </c>
       <c r="D75">
-        <v>6.106899556259648</v>
+        <v>4.676888947845459</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.002083333333333335</v>
       </c>
       <c r="B76">
-        <v>-419.6563343556672</v>
+        <v>-424.9203792302954</v>
       </c>
       <c r="C76">
-        <v>419.2700247955368</v>
+        <v>425.3712823484116</v>
       </c>
       <c r="D76">
-        <v>-0.1267286248249344</v>
+        <v>-0.1621043523430954</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.002111111111111113</v>
       </c>
       <c r="B77">
-        <v>-395.829948043807</v>
+        <v>-403.3324136367909</v>
       </c>
       <c r="C77">
-        <v>422.3130580913066</v>
+        <v>424.4549181286484</v>
       </c>
       <c r="D77">
-        <v>-5.630614036605808</v>
+        <v>-4.712539256258308</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.00213888888888889</v>
       </c>
       <c r="B78">
-        <v>-385.4032960473069</v>
+        <v>-385.3748988520105</v>
       </c>
       <c r="C78">
-        <v>425.9728372862685</v>
+        <v>420.4732779155506</v>
       </c>
       <c r="D78">
-        <v>-24.08957944046358</v>
+        <v>-25.66739970371018</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.002166666666666668</v>
       </c>
       <c r="B79">
-        <v>-362.869059409289</v>
+        <v>-354.8447402417451</v>
       </c>
       <c r="C79">
-        <v>410.0185544473677</v>
+        <v>405.4399143107668</v>
       </c>
       <c r="D79">
-        <v>-74.09274958279671</v>
+        <v>-76.34520085433306</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.002194444444444445</v>
       </c>
       <c r="B80">
-        <v>-298.4152623360531</v>
+        <v>-307.0607110900248</v>
       </c>
       <c r="C80">
-        <v>385.3895102572799</v>
+        <v>391.2579651000214</v>
       </c>
       <c r="D80">
-        <v>-134.5539579696767</v>
+        <v>-137.7677281750445</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.002222222222222223</v>
       </c>
       <c r="B81">
-        <v>-253.6734335562602</v>
+        <v>-255.6820795095116</v>
       </c>
       <c r="C81">
-        <v>407.2996457995095</v>
+        <v>401.9544784102891</v>
       </c>
       <c r="D81">
-        <v>-176.7221301229318</v>
+        <v>-174.1494328343923</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.002250000000000001</v>
       </c>
       <c r="B82">
-        <v>-226.7354293896501</v>
+        <v>-224.5604652919253</v>
       </c>
       <c r="C82">
-        <v>414.6082589164282</v>
+        <v>411.6417035757093</v>
       </c>
       <c r="D82">
-        <v>-188.6584649531911</v>
+        <v>-187.9659485940069</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.002277777777777778</v>
       </c>
       <c r="B83">
-        <v>-213.6883784658669</v>
+        <v>-214.5732290505431</v>
       </c>
       <c r="C83">
-        <v>418.4170183128909</v>
+        <v>426.1398043746225</v>
       </c>
       <c r="D83">
-        <v>-200.0486883870425</v>
+        <v>-204.6569652318822</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.002305555555555556</v>
       </c>
       <c r="B84">
-        <v>-201.7689665462763</v>
+        <v>-204.7201014488517</v>
       </c>
       <c r="C84">
-        <v>420.2519156473879</v>
+        <v>426.420241184154</v>
       </c>
       <c r="D84">
-        <v>-213.3255373913018</v>
+        <v>-214.5978834713114</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B85">
-        <v>-187.088333929433</v>
+        <v>-188.0222363332898</v>
       </c>
       <c r="C85">
-        <v>412.1953935586903</v>
+        <v>412.0958268042394</v>
       </c>
       <c r="D85">
-        <v>-225.9662782252925</v>
+        <v>-224.5957910353008</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.002361111111111111</v>
       </c>
       <c r="B86">
-        <v>-179.0415971820308</v>
+        <v>-174.680741624611</v>
       </c>
       <c r="C86">
-        <v>413.9991762355975</v>
+        <v>403.3694204738332</v>
       </c>
       <c r="D86">
-        <v>-257.1813036472487</v>
+        <v>-255.4916133976434</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.002388888888888889</v>
       </c>
       <c r="B87">
-        <v>-133.7831524146629</v>
+        <v>-138.3274653026448</v>
       </c>
       <c r="C87">
-        <v>388.4684567908052</v>
+        <v>392.0468885226197</v>
       </c>
       <c r="D87">
-        <v>-302.6159647337664</v>
+        <v>-307.4091048989836</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.002416666666666666</v>
       </c>
       <c r="B88">
-        <v>-73.64367869973798</v>
+        <v>-77.73704177604257</v>
       </c>
       <c r="C88">
-        <v>403.742345710338</v>
+        <v>404.8371246804574</v>
       </c>
       <c r="D88">
-        <v>-355.6888097538649</v>
+        <v>-354.4181531766813</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.002444444444444444</v>
       </c>
       <c r="B89">
-        <v>-24.62983294237192</v>
+        <v>-26.394702724927</v>
       </c>
       <c r="C89">
-        <v>427.4740309247906</v>
+        <v>420.379074374912</v>
       </c>
       <c r="D89">
-        <v>-391.5082380003454</v>
+        <v>-386.7566717405711</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.002472222222222222</v>
       </c>
       <c r="B90">
-        <v>-6.19460729265664</v>
+        <v>-4.897608432384016</v>
       </c>
       <c r="C90">
-        <v>422.5701926293486</v>
+        <v>424.5807464617943</v>
       </c>
       <c r="D90">
-        <v>-396.1919407742734</v>
+        <v>-405.0022310793699</v>
       </c>
     </row>
   </sheetData>
